--- a/LIACSserver/dashboard/excelfiles/professors_promotion.xlsx
+++ b/LIACSserver/dashboard/excelfiles/professors_promotion.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5-5-1682</t>
+          <t>1682-05-05</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,7 +476,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23-4-1751</t>
+          <t>1751-04-23</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -494,7 +494,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-8-1810</t>
+          <t>1810-08-21</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -512,7 +512,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16-11-1816</t>
+          <t>1816-11-16</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -530,7 +530,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18-11-1818</t>
+          <t>1818-11-18</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -548,7 +548,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3-11-1843</t>
+          <t>1843-11-03</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -566,7 +566,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15-5-1847</t>
+          <t>1847-05-15</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -584,7 +584,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>18-12-1847</t>
+          <t>1847-12-18</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -602,7 +602,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>15-4-1848</t>
+          <t>1848-04-15</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -620,7 +620,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12-3-1852</t>
+          <t>1852-03-12</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -638,7 +638,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15-6-1857</t>
+          <t>1857-06-15</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -656,7 +656,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10-10-1867</t>
+          <t>1867-10-10</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -674,7 +674,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18-2-1878</t>
+          <t>1878-02-18</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -692,7 +692,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>27-6-1891</t>
+          <t>1891-06-27</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -710,7 +710,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7-7-1898</t>
+          <t>1898-07-07</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -728,7 +728,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>23-6-1904</t>
+          <t>1904-06-23</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -746,7 +746,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30-4-1905</t>
+          <t>1905-04-30</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -764,7 +764,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7-5-1909</t>
+          <t>1909-05-07</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -782,7 +782,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>24-3-1909</t>
+          <t>1909-03-24</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -800,7 +800,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8-5-1919</t>
+          <t>1919-05-08</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -818,7 +818,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11-3-1938</t>
+          <t>1938-03-11</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -836,7 +836,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1-2-2001</t>
+          <t>1963-01-01</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -844,10 +844,4420 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1977-01-02</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1978-03-25</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1978-11-08</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1980-01-23</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1980-06-18</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1980-10-23</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1980-01-02</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1980-06-01</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1981-10-07</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1981-12-09</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1982-11-18</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1982-12-01</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1982-10-13</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1982-10-22</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1982-02-24</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1983-01-01</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1983-10-27</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1983-06-02</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1983-12-15</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1984-11-28</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1984-02-08</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1984-01-18</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1984-03-08</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1984-12-20</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1984-04-13</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1984-06-19</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1984-11-15</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1984-06-13</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1984-06-28</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1985-06-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1985-02-20</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1985-04-24</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1985-12-15</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1985-12-19</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1985-01-30</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1985-04-18</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1985-01-01</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1985-03-15</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1985-06-17</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1985-05-29</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1985-05-23</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1985-06-13</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1986-06-24</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1986-12-08</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1986-05-29</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1986-10-16</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1986-05-22</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1986-10-06</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1986-02-20</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1986-04-09</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1987-12-03</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1987-01-29</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1987-09-17</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1987-01-01</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1987-02-25</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1987-12-11</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1987-11-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1987-12-12</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1987-05-01</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1987-11-26</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1987-10-06</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1987-06-25</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1987-04-29</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1987-06-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1987-12-16</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1988-09-01</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1988-09-22</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1988-07-13</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1988-11-17</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1988-02-18</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1988-06-02</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1988-03-30</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1988-12-22</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1988-05-27</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1988-10-18</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1988-06-01</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1988-10-10</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1988-04-28</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1988-06-19</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1988-01-28</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1988-11-09</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1988-01-22</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1989-12-21</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1989-01-24</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1989-06-05</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1989-04-19</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1989-06-14</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1989-06-22</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>1989-06-01</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1989-06-06</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>1989-09-08</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1989-05-01</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>1989-03-22</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>1989-10-18</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>1989-12-14</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>1989-05-28</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1989-12-12</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1989-02-02</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>1989-01-18</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1989-11-22</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>1989-06-08</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>1990-02-21</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1990-11-02</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>1990-01-10</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1990-03-21</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1990-10-04</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1990-11-08</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1990-01-02</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1990-05-16</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1990-06-27</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1990-03-07</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1990-06-07</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1991-01-24</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1991-11-08</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1991-01-25</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1991-11-11</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1991-11-06</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1991-03-08</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1991-02-13</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>1991-06-01</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1991-12-13</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>1991-01-31</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1991-04-10</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1991-04-12</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>1991-11-27</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>1991-03-21</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>1991-09-05</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1992-06-02</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>1992-12-02</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1992-12-10</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>1992-10-29</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>1992-09-30</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>1992-06-12</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1992-11-19</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1992-04-01</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1992-06-17</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>1992-06-23</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>1992-10-07</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>1992-06-20</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>1992-01-10</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>1992-01-02</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>1992-06-15</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>1992-10-02</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>1992-10-09</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>1992-05-21</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>1993-03-26</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>1993-11-30</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>1993-01-15</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>1993-05-28</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>1993-04-07</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>1993-03-31</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>1993-11-23</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>1993-06-07</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>1993-05-01</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>1993-09-29</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1993-10-07</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>1994-11-11</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1994-11-02</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>1994-06-09</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>1994-12-19</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>1994-10-19</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>1994-01-20</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>1994-11-03</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>1994-03-24</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>1994-06-07</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>1994-02-21</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>1994-11-23</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>1994-09-22</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>1994-03-10</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>1994-05-26</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>1994-11-16</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>1994-06-02</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>1994-03-09</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>1994-11-09</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>1995-03-23</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>1995-09-05</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>1995-04-07</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>1995-03-02</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>1995-03-17</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>1995-09-27</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>1995-03-09</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>1995-05-24</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>1995-02-01</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>1996-01-24</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>1996-01-25</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>1996-10-17</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>1996-06-19</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>1996-01-10</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>1996-05-01</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>1996-05-15</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>1997-01-07</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>1997-06-05</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>1997-11-25</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>1997-12-04</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>1997-03-18</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>1997-01-31</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>1997-02-11</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>1997-05-23</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>1997-04-02</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>1997-03-14</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>1997-06-16</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>1998-10-02</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>1998-01-27</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>1998-06-24</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>1998-05-13</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>1998-11-20</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>1999-04-22</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>1999-04-28</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>1999-01-22</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>1999-10-21</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2000-09-19</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2000-11-08</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2000-09-13</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2000-10-11</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2000-11-23</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2000-01-20</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2000-06-27</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2000-11-15</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2000-01-13</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2001-02-01</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
           <t>2001</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D243" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2002-12-17</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2002-09-05</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2002-09-01</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2002-12-02</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2003-05-13</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2003-11-21</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2003-11-26</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2003-01-15</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2003-12-12</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2004-02-11</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2004-12-15</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2004-12-02</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2005-02-22</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2006-02-18</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2007-09-27</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2007-04-18</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2007-11-19</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2008-10-07</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2008-10-27</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2008-04-10</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2010-04-15</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2010-06-17</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2011-02-17</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2011-06-08</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2012-03-12</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
         <v>21</v>
       </c>
     </row>
